--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>274180.7977699752</v>
+        <v>300122.7940309692</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245799</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484435</v>
+        <v>492028.934248444</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8204881.621697415</v>
+        <v>8242760.412308183</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>326.8753561036519</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>29.78483559980285</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -871,16 +871,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>189.5091344485075</v>
       </c>
       <c r="V4" t="n">
-        <v>65.84072001701249</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>177.2673235749907</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03324702596070892</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1060,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="H7" t="n">
-        <v>30.52380557590079</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.12404698269335</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>362.2934336854079</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1306,7 +1306,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>45.21815184076634</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.67077719907286</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783089135</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="H13" t="n">
-        <v>103.3456594571959</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>165.7499153537905</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>236.0942751322874</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170464</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1856,13 +1856,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>212.1880754063495</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>133.2083887875872</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2005,13 +2005,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>54.18430635300766</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>63.51633119327878</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2020,7 +2020,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2056,7 +2056,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>165.7499153537896</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>309.2588241657155</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>161.7725533806629</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5.990622819018569</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>155.2022955251545</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2776,7 +2776,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>173.2212647391088</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930767003</v>
       </c>
       <c r="V31" t="n">
-        <v>170.2098356895118</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3199,7 +3199,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170504</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225797</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,7 +3481,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>265.766660632728</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946043</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3910,13 +3910,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170431</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>184.7284552769299</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -4138,10 +4138,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4189,7 +4189,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>212.5023562141211</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>23.92593778768362</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>576.7133881874611</v>
       </c>
       <c r="C2" t="n">
-        <v>418.0989517035836</v>
+        <v>542.6113194112884</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>510.741938626137</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>481.0075978248362</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>450.9219052997828</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.52407392304666</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.52407392304666</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031045</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797681</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756276</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382372</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382372</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382372</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1830.441545793405</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1411.299082372715</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1003.012958672369</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414794</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781217</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.732279524675</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516287</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677903</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.8429367339742</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064426</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985416</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028995</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477378</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807948</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031418</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420218</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212426</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>947.1238364150125</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>774.5621248982375</v>
+        <v>955.6037336452929</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>789.7257408468156</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>619.9677370975529</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>443.2606830593091</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>277.6694080851368</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755113</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>200.0427573423586</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>618.2526391103197</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1077.736506291233</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1519.995309448877</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.664558674659</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214705</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2274.705037512701</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2028.825591091157</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1837.402222961351</v>
       </c>
       <c r="V4" t="n">
-        <v>947.1238364150125</v>
+        <v>1837.402222961351</v>
       </c>
       <c r="W4" t="n">
-        <v>947.1238364150125</v>
+        <v>1565.375818547643</v>
       </c>
       <c r="X4" t="n">
-        <v>947.1238364150125</v>
+        <v>1319.984063881055</v>
       </c>
       <c r="Y4" t="n">
-        <v>947.1238364150125</v>
+        <v>1319.984063881055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6066390714051</v>
+        <v>1819.558022317326</v>
       </c>
       <c r="C5" t="n">
-        <v>408.5045702952325</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D5" t="n">
-        <v>376.6351895100811</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E5" t="n">
-        <v>346.9008487087803</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F5" t="n">
-        <v>323.0738231583921</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.149847225912</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.149847225912</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.149847225912</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.149847225912</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.294392636945</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1519292162554</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8658055159088</v>
+        <v>2245.857592802233</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>572.9735035104677</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>400.4117919936926</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>234.5337991952153</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>64.77579544595258</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="F7" t="n">
-        <v>64.77579544595258</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="G7" t="n">
-        <v>64.77579544595258</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>992.2117929153466</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>992.2117929153466</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>992.2117929153466</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>764.7921222294549</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1769.823794869474</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>1331.681322052897</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>895.7715372273418</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>461.996792385637</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>438.1697668352488</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114305</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105242</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105242</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105242</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105242</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>928.4913703274439</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626538</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925631</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925631</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925631</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925631</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925631</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377069</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996783</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1818.433943336841</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897023</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>683.1631182947751</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>683.1631182947751</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>683.1631182947751</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>513.4051145455123</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>336.6980605072686</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>171.1067855330962</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838373</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851263</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851263</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264737</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255674</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1352.293321683212</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1771.962570908993</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925631</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925631</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1679.355404223628</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1679.355404223628</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1679.355404223628</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1392.399896094058</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1120.37349168035</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>874.9817370137623</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>874.9817370137623</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5024,19 +5024,19 @@
         <v>1649.322926419993</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578288</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874956</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G11" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.1527660539752</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,34 +5045,34 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940407</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510714</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P11" t="n">
         <v>4121.145983344109</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302704</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4803.798049006192</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.798049006192</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V11" t="n">
         <v>4181.958796257035</v>
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1051.621568765315</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C13" t="n">
-        <v>879.0598572485396</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D13" t="n">
-        <v>713.1818644500624</v>
+        <v>467.7901097834749</v>
       </c>
       <c r="E13" t="n">
-        <v>543.4238607007997</v>
+        <v>298.0321060342121</v>
       </c>
       <c r="F13" t="n">
-        <v>366.7168066625559</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="G13" t="n">
-        <v>201.1255316883835</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H13" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I13" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
         <v>183.3156618458051</v>
@@ -5239,10 +5239,10 @@
         <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1470.859858170194</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1243.440187484302</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2472.72409529553</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C14" t="n">
-        <v>2034.581622478954</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.671837653398</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1164.897092811693</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>737.0296632209006</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>335.6318318441645</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.1527660539752</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>403.2461837293691</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687547</v>
       </c>
       <c r="L14" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M14" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940407</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510714</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P14" t="n">
         <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302704</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239597</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4493.924657556614</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
-        <v>4131.30770749044</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W14" t="n">
-        <v>3726.452252901474</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X14" t="n">
-        <v>3307.309789480785</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2899.023665780438</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="15">
@@ -5349,13 +5349,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
         <v>1102.064021433509</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580467</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412717</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427942</v>
+        <v>467.7901097834749</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>298.0321060342122</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552876</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="G16" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H16" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
         <v>183.3156618458051</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119685</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.84397037279</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243222</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162926</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2336.308741984732</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>1898.166269168155</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1462.256484342599</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1028.481739500894</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>600.6143099101018</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.282920610759</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.1527660539752</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I17" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>403.2461837293691</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687547</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510714</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P17" t="n">
         <v>4121.145983344109</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302704</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.79883405576</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.731606928799</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U17" t="n">
-        <v>4357.509304245816</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V17" t="n">
-        <v>3994.892354179642</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W17" t="n">
-        <v>3590.036899590676</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.894436169986</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y17" t="n">
-        <v>2762.60831246964</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="18">
@@ -5586,13 +5586,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
         <v>1102.064021433509</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1063.244993550994</v>
+        <v>806.2298140987274</v>
       </c>
       <c r="C19" t="n">
-        <v>890.6832820342189</v>
+        <v>633.6681025819523</v>
       </c>
       <c r="D19" t="n">
-        <v>724.8052892357416</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="E19" t="n">
-        <v>555.0472854864789</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I19" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
         <v>183.3156618458051</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U19" t="n">
-        <v>2286.856950165738</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V19" t="n">
-        <v>1999.901442036169</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W19" t="n">
-        <v>1727.87503762246</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X19" t="n">
-        <v>1482.483282955873</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y19" t="n">
-        <v>1255.063612269981</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872687</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>96.7359766811152</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5756,46 +5756,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2312.656441940407</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2312.656441940407</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940407</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510714</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P20" t="n">
         <v>4121.145983344109</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302704</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4753.146960239597</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U20" t="n">
-        <v>4493.924657556614</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.542006884174</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.544088874518</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
         <v>1102.064021433509</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580465</v>
+        <v>1084.662814845622</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412714</v>
+        <v>912.1011033288468</v>
       </c>
       <c r="D22" t="n">
-        <v>608.792309442794</v>
+        <v>748.6944837524196</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552876</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G22" t="n">
-        <v>96.7359766811152</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
         <v>183.3156618458051</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119685</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.843970372791</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243221</v>
+        <v>2021.319263330797</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829513</v>
+        <v>1749.292858917088</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162925</v>
+        <v>1503.901104250501</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1276.481433564609</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>108.3119744314044</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.416826573035</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8551150562604</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
         <v>2473.041003752035</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.60800300514</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.652494875571</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461862</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X28" t="n">
-        <v>1460.655115977914</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y28" t="n">
-        <v>1233.235445292023</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.781058858859</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>754.2193473420839</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6652,19 +6652,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1863.437507344034</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W31" t="n">
-        <v>1591.411102930326</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1346.019348263738</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1118.599677577846</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716171</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731397</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>303.556969623877</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856332</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674085</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1926.156830648848</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1408.738671568552</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7184,40 +7184,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
         <v>267.852115244952</v>
@@ -7357,7 +7357,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
         <v>2454.80183470935</v>
@@ -7388,7 +7388,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7397,10 +7397,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7418,43 +7418,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2758.053686176684</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1041.416826573035</v>
+        <v>811.7546776883913</v>
       </c>
       <c r="C43" t="n">
-        <v>868.8551150562603</v>
+        <v>639.1929661716163</v>
       </c>
       <c r="D43" t="n">
-        <v>702.9771222577831</v>
+        <v>473.314973373139</v>
       </c>
       <c r="E43" t="n">
-        <v>533.2191185085203</v>
+        <v>303.5569696238762</v>
       </c>
       <c r="F43" t="n">
-        <v>356.5120644702766</v>
+        <v>126.8499155856324</v>
       </c>
       <c r="G43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7579,7 +7579,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O43" t="n">
         <v>2203.220781338905</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2265.02878318778</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1978.07327505821</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1706.046870644502</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1460.655115977914</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1233.235445292023</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="44">
@@ -7646,52 +7646,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K44" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L44" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1011.560997133398</v>
+        <v>875.5388337745582</v>
       </c>
       <c r="C46" t="n">
-        <v>838.9992856166232</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="D46" t="n">
-        <v>673.1212928181459</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
         <v>190.9207894961043</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2099.150790389303</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1812.195282259733</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1540.168877846025</v>
       </c>
       <c r="X46" t="n">
-        <v>1430.799286538277</v>
+        <v>1294.777123179437</v>
       </c>
       <c r="Y46" t="n">
-        <v>1203.379615852385</v>
+        <v>1067.357452493545</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803722</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854919</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274465</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.426309209009787</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314077</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428069</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294913</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457111</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294913</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457111</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>860.0355415814579</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294913</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>860.035541581457</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9893,10 +9893,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10130,10 +10130,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K44" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.1445778789285</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>268.0111327346204</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H13" t="n">
-        <v>35.15749310933332</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>268.0111327346204</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50.14457787892852</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>185.1957776566192</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>267.5985112554898</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>110.0349065174849</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>111.4236523045826</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>268.0111327346213</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>49.73195639979622</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2.446659489829671</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,13 +24175,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>81.78272691405284</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>120.4463752142713</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>69.71657238081279</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="V31" t="n">
-        <v>113.876117358762</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>18.31929241554582</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.592177662725</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>90.92021546249578</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>63.1463145253046</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>219.011899332238</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>693573.3464378575</v>
+        <v>705236.4646198822</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>693573.3464378575</v>
+        <v>708539.1489070583</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>695748.7121760983</v>
+        <v>708539.1489070583</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>696634.9871321812</v>
+        <v>696634.9871321809</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>696634.9871321811</v>
+        <v>696634.9871321809</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>726033.779646517</v>
+        <v>726033.7796465169</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>726033.779646517</v>
+        <v>726033.7796465169</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>281477.3429424644</v>
+        <v>281477.3429424645</v>
       </c>
       <c r="C2" t="n">
-        <v>281477.3429424644</v>
+        <v>281477.3429424645</v>
       </c>
       <c r="D2" t="n">
-        <v>281477.3429424644</v>
+        <v>281477.3429424645</v>
       </c>
       <c r="E2" t="n">
         <v>265400.0464351302</v>
@@ -26329,7 +26329,7 @@
         <v>265400.0464351301</v>
       </c>
       <c r="H2" t="n">
-        <v>265400.0464351302</v>
+        <v>265400.0464351301</v>
       </c>
       <c r="I2" t="n">
         <v>276600.2316721099</v>
@@ -26350,7 +26350,7 @@
         <v>276600.2316721099</v>
       </c>
       <c r="O2" t="n">
-        <v>276600.2316721099</v>
+        <v>276600.23167211</v>
       </c>
       <c r="P2" t="n">
         <v>276600.2316721099</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039026</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390701</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520279</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.7156328394</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.829485613</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784543</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104682</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>174244.3817256398</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>200045.3005001111</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
         <v>78141.89423804612</v>
       </c>
       <c r="F4" t="n">
-        <v>78141.89423804612</v>
+        <v>78141.89423804611</v>
       </c>
       <c r="G4" t="n">
-        <v>78141.89423804614</v>
+        <v>78141.89423804611</v>
       </c>
       <c r="H4" t="n">
-        <v>78141.89423804614</v>
+        <v>78141.89423804611</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
         <v>81439.57146904283</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814187</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126099.7186963346</v>
+        <v>-169428.4315452198</v>
       </c>
       <c r="C6" t="n">
-        <v>16091.58196337533</v>
+        <v>24661.18574724138</v>
       </c>
       <c r="D6" t="n">
-        <v>8875.964821881498</v>
+        <v>42001.73012114839</v>
       </c>
       <c r="E6" t="n">
-        <v>-110060.4838325914</v>
+        <v>-48072.82384547476</v>
       </c>
       <c r="F6" t="n">
-        <v>113738.8099194365</v>
+        <v>113662.2513646398</v>
       </c>
       <c r="G6" t="n">
-        <v>113738.8099194364</v>
+        <v>113662.2513646396</v>
       </c>
       <c r="H6" t="n">
-        <v>113738.8099194365</v>
+        <v>113662.2513646396</v>
       </c>
       <c r="I6" t="n">
-        <v>99077.70596443512</v>
+        <v>99054.48162505243</v>
       </c>
       <c r="J6" t="n">
-        <v>6427.956252284304</v>
+        <v>-43188.63222772105</v>
       </c>
       <c r="K6" t="n">
-        <v>117442.4215972745</v>
+        <v>103605.1886900464</v>
       </c>
       <c r="L6" t="n">
-        <v>108494.810508765</v>
+        <v>117419.1972578919</v>
       </c>
       <c r="M6" t="n">
-        <v>-69348.56501319363</v>
+        <v>-17570.74735511162</v>
       </c>
       <c r="N6" t="n">
-        <v>117442.4215972745</v>
+        <v>117419.1972578919</v>
       </c>
       <c r="O6" t="n">
-        <v>117442.4215972746</v>
+        <v>117419.197257892</v>
       </c>
       <c r="P6" t="n">
-        <v>117442.4215972746</v>
+        <v>117419.197257892</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825323</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080524</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825323</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825323</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>104.675330873648</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>393.8039196950814</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,10 +27439,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>86.13953629091822</v>
       </c>
       <c r="V4" t="n">
-        <v>218.2452330312614</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>256.4937245134203</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.78210805204066</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27676,13 +27676,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="H7" t="n">
-        <v>107.9793469906284</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>373.9125277973653</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27916,10 +27916,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>52.65760510107447</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>93.28500072576288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803722</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854919</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274465</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.426309209009787</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314077</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956007</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428069</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294913</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457111</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294913</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457111</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35896,7 +35896,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>860.0355415814579</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36124,7 +36124,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294913</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>860.035541581457</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,19 +36604,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36765,13 +36765,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37239,13 +37239,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512943</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645584</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K44" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
